--- a/clima.xlsx
+++ b/clima.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,129 +422,180 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dia</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Temp Max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temp Min</t>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Temperatura Maxima</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Temperatura Minima</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hoy
-16 Jul
-60%
-0.1 mm
-29° / 21°
-12 - 27 km/h</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>Hoy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3 Ago</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>36°</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23°</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mañana
-17 Jul
-70%
-8.1 mm
-29° / 20°
-14 - 29 km/h</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4 Ago</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>37°</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23°</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jueves
-18 Jul
-80%
-9.5 mm
-29° / 19°
-15 - 31 km/h</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5 Ago</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37°</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22°</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Viernes
-19 Jul
-70%
-1.1 mm
-29° / 19°
-13 - 28 km/h</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6 Ago</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>37°</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23°</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sábado
-20 Jul
-40%
-1.7 mm
-30° / 19°
-9 - 23 km/h</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7 Ago</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>38°</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23°</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Domingo
-21 Jul
-31° / 20°
-6 - 19 km/h</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8 Ago</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>38°</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23°</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lunes
-22 Jul
-60%
-0.2 mm
-31° / 21°
-17 - 34 km/h</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9 Ago</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>37°</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23°</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/clima.xlsx
+++ b/clima.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3 Ago</t>
+          <t>8 Ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>36°</t>
+          <t>38°</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -473,12 +473,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4 Ago</t>
+          <t>9 Ago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>37°</t>
+          <t>36°</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -490,34 +490,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5 Ago</t>
+          <t>10 Ago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>37°</t>
+          <t>36°</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22°</t>
+          <t>23°</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6 Ago</t>
+          <t>11 Ago</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,63 +527,63 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23°</t>
+          <t>22°</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7 Ago</t>
+          <t>12 Ago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>38°</t>
+          <t>37°</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23°</t>
+          <t>21°</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8 Ago</t>
+          <t>13 Ago</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>38°</t>
+          <t>37°</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23°</t>
+          <t>22°</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9 Ago</t>
+          <t>14 Ago</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
